--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\playwright\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AD6BD-18DE-4ADB-80D6-B6BC3150A213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379307E2-B41A-4BF2-B2EC-E7BC00F217C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="UserRegTest" sheetId="2" r:id="rId2"/>
+    <sheet name="FindCarTest" sheetId="3" r:id="rId2"/>
+    <sheet name="UserRegTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>username</t>
   </si>
@@ -103,6 +104,36 @@
   </si>
   <si>
     <t>LastTest</t>
+  </si>
+  <si>
+    <t>carbrand</t>
+  </si>
+  <si>
+    <t>browserType</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>toyota</t>
   </si>
 </sst>
 </file>
@@ -544,10 +575,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1C5FD9-9A2A-48E1-96F7-871DE345E001}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F850C-437A-4316-93AA-6E12EDEC51B3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379307E2-B41A-4BF2-B2EC-E7BC00F217C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A2F92C-68E5-4A8A-A7FF-B945B718AEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -118,13 +118,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>bmw</t>
@@ -579,7 +573,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,35 +594,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A2F92C-68E5-4A8A-A7FF-B945B718AEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741B049-5E43-432E-B397-5598FB4E83BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>bmw</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>toyota</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,35 +594,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3741B049-5E43-432E-B397-5598FB4E83BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282C414-A3BD-4E6C-8064-58DEBEB9C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>carTitle</t>
+  </si>
+  <si>
+    <t>BMW Cars</t>
+  </si>
+  <si>
+    <t>Toyota Cars</t>
+  </si>
+  <si>
+    <t>Maruti Cars</t>
   </si>
 </sst>
 </file>
@@ -570,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1C5FD9-9A2A-48E1-96F7-871DE345E001}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +593,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -591,8 +603,11 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -602,8 +617,11 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -613,8 +631,11 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -623,6 +644,9 @@
       </c>
       <c r="C4" t="s">
         <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282C414-A3BD-4E6C-8064-58DEBEB9C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6E3292-34AC-47A9-835C-4A7AA4D46F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="FindCarTest" sheetId="3" r:id="rId2"/>
-    <sheet name="UserRegTest" sheetId="2" r:id="rId3"/>
+    <sheet name="CarNameAndPrice" sheetId="4" r:id="rId3"/>
+    <sheet name="UserRegTest" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -140,6 +141,9 @@
   </si>
   <si>
     <t>Maruti Cars</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -584,13 +588,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1C5FD9-9A2A-48E1-96F7-871DE345E001}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -655,6 +660,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1DFB5-BDDC-4489-A51F-779D534F7308}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F850C-437A-4316-93AA-6E12EDEC51B3}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6E3292-34AC-47A9-835C-4A7AA4D46F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5913800-3F64-4576-9353-B07C9E1F8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Maruti Cars</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -664,7 +661,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5913800-3F64-4576-9353-B07C9E1F8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE755A-234C-4C0E-A97B-548FAD7EEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/resources/TestSpreadSheet.xlsx
+++ b/resources/TestSpreadSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodr\source\repos\PageObjectModelPW\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE755A-234C-4C0E-A97B-548FAD7EEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1319482-4E4A-4DC2-8728-D08BA60E7163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B0960BCF-52F0-4C8D-81B4-BE3083B9D9A2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Maruti Cars</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1C5FD9-9A2A-48E1-96F7-871DE345E001}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +634,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -660,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1DFB5-BDDC-4489-A51F-779D534F7308}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
